--- a/outputs_by_cluster/cluster_BIO/publications_with_topics.xlsx
+++ b/outputs_by_cluster/cluster_BIO/publications_with_topics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>topic_prob</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>llm_label</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>llm_labels</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -530,6 +540,16 @@
       <c r="J2" t="n">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -576,6 +596,16 @@
       <c r="J3" t="n">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -618,6 +648,16 @@
       <c r="J4" t="n">
         <v>0.8254580249117163</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -664,6 +704,16 @@
       <c r="J5" t="n">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,6 +756,16 @@
       <c r="J6" t="n">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -752,6 +812,16 @@
       <c r="J7" t="n">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -794,6 +864,8 @@
       <c r="J8" t="n">
         <v>0.5862957913691936</v>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -840,6 +912,16 @@
       <c r="J9" t="n">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -882,6 +964,16 @@
       <c r="J10" t="n">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -924,6 +1016,8 @@
       <c r="J11" t="n">
         <v>0.5158103709067231</v>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -970,6 +1064,16 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1016,6 +1120,16 @@
       <c r="J13" t="n">
         <v>0.4884057010134769</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1062,6 +1176,16 @@
       <c r="J14" t="n">
         <v>0.6821853055476508</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1104,6 +1228,8 @@
       <c r="J15" t="n">
         <v>0.540662365839073</v>
       </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1150,6 +1276,16 @@
       <c r="J16" t="n">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1196,6 +1332,16 @@
       <c r="J17" t="n">
         <v>0.8011723906224547</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1242,6 +1388,16 @@
       <c r="J18" t="n">
         <v>0.8662059423734754</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1288,6 +1444,16 @@
       <c r="J19" t="n">
         <v>0.7788174623497541</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1334,6 +1500,16 @@
       <c r="J20" t="n">
         <v>0.7082799989626809</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1376,6 +1552,16 @@
       <c r="J21" t="n">
         <v>0.5514619425208611</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1418,6 +1604,16 @@
       <c r="J22" t="n">
         <v>1</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1464,6 +1660,16 @@
       <c r="J23" t="n">
         <v>0.7215821031083888</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1510,6 +1716,16 @@
       <c r="J24" t="n">
         <v>0.859325791205288</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1554,7 +1770,17 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.4609666325195073</v>
+        <v>0.4609666325195072</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1598,6 +1824,16 @@
       <c r="J26" t="n">
         <v>0.7884046504624871</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1644,6 +1880,16 @@
       <c r="J27" t="n">
         <v>0.7911357472147742</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1686,6 +1932,16 @@
       <c r="J28" t="n">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1732,6 +1988,8 @@
       <c r="J29" t="n">
         <v>0.6667870740355216</v>
       </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1774,6 +2032,16 @@
       <c r="J30" t="n">
         <v>1</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1816,6 +2084,16 @@
       <c r="J31" t="n">
         <v>0.793274805360246</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1858,6 +2136,16 @@
       <c r="J32" t="n">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1900,6 +2188,16 @@
       <c r="J33" t="n">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1942,6 +2240,16 @@
       <c r="J34" t="n">
         <v>0.8584636415765791</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1988,6 +2296,16 @@
       <c r="J35" t="n">
         <v>0.7765129896552475</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2034,6 +2352,16 @@
       <c r="J36" t="n">
         <v>0.8904464200905778</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2080,6 +2408,16 @@
       <c r="J37" t="n">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2126,6 +2464,8 @@
       <c r="J38" t="n">
         <v>0.6956969424978576</v>
       </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2172,6 +2512,16 @@
       <c r="J39" t="n">
         <v>0.4865564268171442</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2218,6 +2568,16 @@
       <c r="J40" t="n">
         <v>1</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2264,6 +2624,16 @@
       <c r="J41" t="n">
         <v>0.4457383160002196</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2306,6 +2676,16 @@
       <c r="J42" t="n">
         <v>0.5651163197439091</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2352,6 +2732,16 @@
       <c r="J43" t="n">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2398,6 +2788,16 @@
       <c r="J44" t="n">
         <v>0.5558426935706696</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2444,6 +2844,16 @@
       <c r="J45" t="n">
         <v>0.4885781518462062</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2490,6 +2900,16 @@
       <c r="J46" t="n">
         <v>1</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2534,8 +2954,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0.4154189276137678</v>
-      </c>
+        <v>0.4154189276137677</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2582,6 +3004,16 @@
       <c r="J48" t="n">
         <v>0.4752611744026958</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2628,6 +3060,16 @@
       <c r="J49" t="n">
         <v>0.5081094988720195</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2674,6 +3116,16 @@
       <c r="J50" t="n">
         <v>0.6063564061679395</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2720,6 +3172,8 @@
       <c r="J51" t="n">
         <v>0.4349476334710516</v>
       </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2762,6 +3216,16 @@
       <c r="J52" t="n">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2808,6 +3272,8 @@
       <c r="J53" t="n">
         <v>0.4878034670075765</v>
       </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2850,6 +3316,16 @@
       <c r="J54" t="n">
         <v>1</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2896,6 +3372,8 @@
       <c r="J55" t="n">
         <v>0.3551039359690898</v>
       </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2938,6 +3416,16 @@
       <c r="J56" t="n">
         <v>0.8774639706792999</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2984,6 +3472,8 @@
       <c r="J57" t="n">
         <v>0.3629026919757879</v>
       </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3026,6 +3516,16 @@
       <c r="J58" t="n">
         <v>0.8895735743624972</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Bayesian analysis in clinical trials; Head and neck cancer diagnostics; Equivalence and non-inferiority studies</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3072,6 +3572,16 @@
       <c r="J59" t="n">
         <v>0.4923170588955192</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3117,6 +3627,16 @@
       </c>
       <c r="J60" t="n">
         <v>0.4278909225348497</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Psychological traits and uncertainty; Childhood experiences in Germany; Cross-cultural personality assessment</t>
+        </is>
       </c>
     </row>
   </sheetData>
